--- a/biology/Médecine/Sœurs_de_la_charité_du_Verbe_incarné/Sœurs_de_la_charité_du_Verbe_incarné.xlsx
+++ b/biology/Médecine/Sœurs_de_la_charité_du_Verbe_incarné/Sœurs_de_la_charité_du_Verbe_incarné.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C5%93urs_de_la_charit%C3%A9_du_Verbe_incarn%C3%A9</t>
+          <t>Sœurs_de_la_charité_du_Verbe_incarné</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Sœurs de la charité du Verbe incarné (en anglais : Sisters of Charity of the Incarnate Word) forment une congrégation catholique féminine de droit pontifical vouée à l'éducation de la jeunesse et à des œuvres socio-sanitaires.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C5%93urs_de_la_charit%C3%A9_du_Verbe_incarn%C3%A9</t>
+          <t>Sœurs_de_la_charité_du_Verbe_incarné</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La congrégation est fondée par Mgr Dubuis (1817-1895), prêtre français qui est envoyé au Texas et qui, devenu évêque, recrute des religieuses pour le diocèse de Galveston. Trois religieuses françaises de l'archidiocèse de Lyon le rejoignent, les sœurs Marie-Blandine de Jésus Mathelin, Marie-Joseph de Jésus Roussin et Marie-Angèle de Jésus Escudé, qui travaillaient dans un hôpital de Lyon. Mgr Dubuis affilie les Sœurs à la spiritualité de l'ordre du Verbe incarné fondé en 1625 par Jeanne Chézard de Matel (1596-1670). Il leur donne l'habit religieux dans le couvent de l'ordre à Lyon en 1866, deux jours avant le départ du groupe pour les États-Unis. Parallèlement, le monastère de Lyon forme de nouvelles novices qu'il envoie au Texas.
 Elles ouvrent, le 1er avril 1867, la St. Mary's Infirmary, première institution hospitalière catholique du Texas. Mais la sœur Mathelin et la sœur Escudé meurent quelques mois plus tard en soignant des malades. Elles font venir ensuite de nombreuses religieuses de France, d'Irlande et d'Allemagne, jusqu'à recevoir elles-mêmes les premières vocations de leurs propres fondations.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C5%93urs_de_la_charit%C3%A9_du_Verbe_incarn%C3%A9</t>
+          <t>Sœurs_de_la_charité_du_Verbe_incarné</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Activité et diffusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les religieuses se dévouent à des œuvres éducatives et socio-sanitaires. Elles sont présentes aux États-Unis, au Guatémala, en Irlande, au Kenya, et au Salvador. Leur maison généralice est à Houston. Au 31 décembre 2008, la congrégation comptait 176 religieuses dans 41 maisons.
 Le rameau de San Antonio est présent aux États-Unis, au Guatémala, en Irlande, au Mexique, au Pérou et en Zambie. Ses religieuses étaient au 31 décembre 2008 au nombre de 388, réparties dans 127 maisons.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C5%93urs_de_la_charit%C3%A9_du_Verbe_incarn%C3%A9</t>
+          <t>Sœurs_de_la_charité_du_Verbe_incarné</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(it) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en italien intitulé « Suore di Carità del Verbo Incarnato » (voir la liste des auteurs).</t>
         </is>
